--- a/tests/data/group_variables/multiple_groups_some_sheets.xlsx
+++ b/tests/data/group_variables/multiple_groups_some_sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/group_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A7149-EF30-5742-90BF-48B27ED1EF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C6065C-AC3D-9444-9DA8-65AAF94346BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="8280" windowWidth="23400" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -530,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -599,8 +602,11 @@
       <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -640,8 +646,11 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -669,8 +678,11 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -701,8 +713,11 @@
       <c r="T4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -733,11 +748,14 @@
       <c r="T5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J6" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F8" s="3"/>
     </row>
   </sheetData>
